--- a/Projects/Sales Performance Analysis/Excel/Financials.xlsx
+++ b/Projects/Sales Performance Analysis/Excel/Financials.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analysis\Projects\Excel\Second analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A2DEF1-C2D6-4F91-8959-DC23C6D632CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9DAA82-D566-4609-AA4B-6EE39226B8E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot Tables" sheetId="3" r:id="rId2"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Financial">Table1[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -248,8 +249,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -568,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -683,6 +684,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -728,7 +911,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -742,8 +925,61 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -791,16 +1027,13 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
@@ -815,16 +1048,19 @@
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+      <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
@@ -15677,6 +15913,198 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB880B22-2A68-4E68-A2C7-54475F3AA707}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="% Change in Gross Sales " fld="7" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% Change in Sales " fld="9" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% Change in COGS " fld="10" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% change in Profit" fld="11" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% change in GPM" fld="19" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A054B8B-76ED-4E20-B8C9-414AEADBF840}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A26:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Profit" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of   Sales " fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18FCDEEA-FEE3-4607-A549-39A8A8CFBC56}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A18:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
@@ -15755,10 +16183,10 @@
     <dataField name="Sum of   Sales " fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -15781,7 +16209,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8A6F5DF-49EA-4A9E-82D6-E1DC947C6809}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A9:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
@@ -15860,10 +16288,10 @@
     <dataField name="profit contribution" fld="11" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -15875,7 +16303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15884,7 +16312,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15906,7 +16334,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB9278B0-2023-4CC9-A5EC-D3CCAF056104}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="">
   <location ref="I3:P21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
@@ -16060,198 +16488,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB880B22-2A68-4E68-A2C7-54475F3AA707}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="16"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="% Change in Gross Sales " fld="7" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% Change in Sales " fld="9" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% Change in COGS " fld="10" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% change in Profit" fld="11" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% change in GPM" fld="19" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A054B8B-76ED-4E20-B8C9-414AEADBF840}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A26:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Profit" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of   Sales " fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C401004A-7C91-4256-9048-76136122B7C0}" name="Table1" displayName="Table1" ref="A1:S701" totalsRowShown="0">
   <tableColumns count="19">
@@ -16266,13 +16502,13 @@
     <tableColumn id="9" xr3:uid="{534FF5FB-8056-49F5-A4DD-C68A57EC045E}" name=" Discounts " dataDxfId="15"/>
     <tableColumn id="10" xr3:uid="{3094CCE2-49DE-407C-BE6F-CA81C023F527}" name="  Sales " dataDxfId="14"/>
     <tableColumn id="11" xr3:uid="{323F4118-515F-47B2-AB32-80E8E8645C5F}" name=" COGS " dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{4B9FDA9B-079A-47F7-BC5E-1E53A53F5FA6}" name="Profit" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{E6983A6A-DEC5-4394-AC4D-CB57502F6EA7}" name="Profit Margin" dataDxfId="0">
+    <tableColumn id="17" xr3:uid="{4B9FDA9B-079A-47F7-BC5E-1E53A53F5FA6}" name="Profit" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{E6983A6A-DEC5-4394-AC4D-CB57502F6EA7}" name="Profit Margin" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[Profit]]/Table1[[#This Row],[  Sales ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{2ECDF08A-A88C-44AA-8232-90BABB5B4DBF}" name="Date" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{2ECDF08A-A88C-44AA-8232-90BABB5B4DBF}" name="Date" dataDxfId="10"/>
     <tableColumn id="14" xr3:uid="{AB6951DE-A8C0-41CB-AED0-E230F8A635A6}" name="Month Number"/>
-    <tableColumn id="15" xr3:uid="{CFFBCC57-0B3E-45E3-81C5-C88E547019B2}" name=" Month Name " dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{CFFBCC57-0B3E-45E3-81C5-C88E547019B2}" name=" Month Name " dataDxfId="9"/>
     <tableColumn id="16" xr3:uid="{056FEA74-64FA-4999-9DD8-53D5AF0DE3E8}" name="Year"/>
     <tableColumn id="18" xr3:uid="{B61247E8-73FE-47AA-98B7-8B144E4025A4}" name="COGS per Unit">
       <calculatedColumnFormula>Table1[[#This Row],[ COGS ]]/Table1[[#This Row],[ Units Sold ]]</calculatedColumnFormula>
@@ -16584,7 +16820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
@@ -60081,14 +60317,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D54AA1-C8CF-4AAC-A5AD-D562BDAD97A3}">
   <dimension ref="A3:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -60759,18 +60995,6 @@
       <c r="C29" s="3">
         <v>15390801.879999995</v>
       </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -60782,28 +61006,6 @@
       <c r="C30" s="3">
         <v>33011143.960000008</v>
       </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="4">
-        <f>CORREL(Table1[[ Discounts ]],Table1[[ Discounts ]])</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="4">
-        <f>CORREL(Table1[[ Discounts ]],Table1[[  Sales ]])</f>
-        <v>0.74344679533338542</v>
-      </c>
-      <c r="J30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30">
-        <f>CORREL(Table1[[ Discounts ]],Table1[[ Discounts ]])</f>
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <f>CORREL(Table1[[ Discounts ]],Table1[Profit])</f>
-        <v>0.43914121360682173</v>
-      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -60814,28 +61016,6 @@
       </c>
       <c r="C31" s="3">
         <v>18250059.470000003</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31">
-        <f>CORREL(Table1[[  Sales ]],Table1[[ Discounts ]])</f>
-        <v>0.74344679533338542</v>
-      </c>
-      <c r="H31">
-        <f>CORREL(Table1[[  Sales ]],Table1[[  Sales ]])</f>
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <f>CORREL(Table1[Profit],Table1[[ Discounts ]])</f>
-        <v>0.43914121360682173</v>
-      </c>
-      <c r="L31">
-        <f>CORREL(Table1[Profit],Table1[Profit])</f>
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -60853,4 +61033,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A4290-4A98-4CAD-9F01-28ADF42BA7BA}">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="8" max="10" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="28"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="2:10" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="22">
+        <f>CORREL(Table1[[ Discounts ]],Table1[[ Discounts ]])</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <f>CORREL(Table1[[ Discounts ]],Table1[[  Sales ]])</f>
+        <v>0.74344679533338542</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="24">
+        <f>CORREL(Table1[[ Discounts ]],Table1[[ Discounts ]])</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="26">
+        <f>CORREL(Table1[[ Discounts ]],Table1[Profit])</f>
+        <v>0.43914121360682173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="23">
+        <f>CORREL(Table1[[  Sales ]],Table1[[ Discounts ]])</f>
+        <v>0.74344679533338542</v>
+      </c>
+      <c r="E5" s="14">
+        <f>CORREL(Table1[[  Sales ]],Table1[[  Sales ]])</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="13">
+        <f>CORREL(Table1[Profit],Table1[[ Discounts ]])</f>
+        <v>0.43914121360682173</v>
+      </c>
+      <c r="J5" s="27">
+        <f>CORREL(Table1[Profit],Table1[Profit])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projects/Sales Performance Analysis/Excel/Financials.xlsx
+++ b/Projects/Sales Performance Analysis/Excel/Financials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analysis\Projects\Excel\Second analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ore\Documents\GitHub\Combo-projects\Projects\Sales Performance Analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9DAA82-D566-4609-AA4B-6EE39226B8E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05090B18-EBE5-4DEF-9E61-F386FB5A0C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -824,10 +824,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -842,7 +855,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thick">
@@ -857,11 +870,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -911,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -969,6 +982,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,8 +993,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1033,6 +1049,15 @@
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
     </dxf>
     <dxf>
@@ -1042,16 +1067,7 @@
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$$-1009]#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -15913,305 +15929,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB880B22-2A68-4E68-A2C7-54475F3AA707}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="16"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="% Change in Gross Sales " fld="7" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% Change in Sales " fld="9" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% Change in COGS " fld="10" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% change in Profit" fld="11" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-    <dataField name="% change in GPM" fld="19" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A054B8B-76ED-4E20-B8C9-414AEADBF840}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A26:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Profit" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of   Sales " fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18FCDEEA-FEE3-4607-A549-39A8A8CFBC56}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="20">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Profit" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of   Sales " fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8A6F5DF-49EA-4A9E-82D6-E1DC947C6809}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A9:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="B9:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="6">
@@ -16288,10 +16007,10 @@
     <dataField name="profit contribution" fld="11" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -16303,7 +16022,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16312,7 +16031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16334,9 +16053,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB9278B0-2023-4CC9-A5EC-D3CCAF056104}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="">
-  <location ref="I3:P21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="J3:Q21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16476,6 +16195,303 @@
     <dataField name="Sum of COGS per Unit" fld="17" showDataAs="percentDiff" baseField="15" baseItem="1048828" numFmtId="10"/>
     <dataField name="Sum of Revenue per Unit" fld="18" showDataAs="percentDiff" baseField="15" baseItem="1048828" numFmtId="10"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB880B22-2A68-4E68-A2C7-54475F3AA707}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="% Change in Gross Sales " fld="7" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% Change in Sales " fld="9" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% Change in COGS " fld="10" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% change in Profit" fld="11" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+    <dataField name="% change in GPM" fld="19" showDataAs="percentDiff" baseField="16" baseItem="1048828" numFmtId="10"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A054B8B-76ED-4E20-B8C9-414AEADBF840}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B26:D32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Profit" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of   Sales " fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{18FCDEEA-FEE3-4607-A549-39A8A8CFBC56}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B18:D23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="20">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Profit" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of   Sales " fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16820,9 +16836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S701"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60315,645 +60331,642 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D54AA1-C8CF-4AAC-A5AD-D562BDAD97A3}">
-  <dimension ref="A3:P32"/>
+  <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:L31"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>63</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>57</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>69</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
         <v>2013</v>
       </c>
-      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="I4" s="5">
+      <c r="G4" s="7"/>
+      <c r="J4" s="5">
         <v>2013</v>
       </c>
-      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
         <v>2014</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C5" s="7">
         <v>2.4792742756003188</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>2.4946129801793444</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <v>2.5185070048348943</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>2.2673489364214383</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>-6.5032678882295761E-2</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>1.0780627079397243</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>1.0730622296628298</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>1.0529572516051378</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>0.9283411136986266</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>-6.9810309547601423E-2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>1</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>0.9989662284225781</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I7" s="6" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>-0.1690306987056665</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>-0.21821134492169073</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>-0.14874867370462971</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>-0.44877416692354138</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>-0.29491707318105803</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>-0.5</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>-0.5240130568356377</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I8" s="6" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>-0.28556587225850089</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>-0.26127825817120043</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>-0.28066870500504404</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>-3.409269548630544E-2</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>0.30753875217273041</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>2.9415798688148746E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="5">
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
         <v>2014</v>
       </c>
-      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C10" s="7">
         <v>0.73131611194628043</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <v>7.1377847443190659E-2</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7">
+      <c r="C11" s="7">
         <v>0.2771349663513501</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>3.578115530222592E-2</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>5.3616513717902672E-2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>0.10438779913081281</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>6.1316425869124447E-2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <v>0.29240193361035544</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <v>0.17024285728936489</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <v>4.3903873652820169E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C12" s="7">
         <v>0.21689998168735239</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="7">
         <v>0.61730053886313963</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>-0.20458941129085992</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="7">
         <v>-0.23441783646784714</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>-0.20035683943884064</v>
       </c>
-      <c r="M12" s="7">
+      <c r="N12" s="7">
         <v>-0.42535060037532096</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>-0.24939552278304233</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>-2.4663792086873276E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7">
+      <c r="C13" s="7">
         <v>9.7651938781771724E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <v>0.22458212631877006</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>0.21315495721278779</v>
       </c>
-      <c r="K13" s="7">
+      <c r="L13" s="7">
         <v>0.24663500464707414</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>0.22733355528470348</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N13" s="7">
         <v>0.41359056888481277</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>0.13392497693019972</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>1.8490531925732599E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C14" s="7">
         <v>4.7935525701374916E-2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <v>5.0958332072673758E-2</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>-8.9035745520242737E-2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>-0.10834004132693405</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>-0.10824228280998321</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>-4.0132770877882341E-2</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>7.6494710551492137E-2</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>-1.8606452193188829E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I15" s="6" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>0.51730304964116702</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <v>0.53278104850755192</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>0.49494264778816444</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N15" s="7">
         <v>0.63964545366113001</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>6.9719289168945806E-2</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="7">
         <v>1</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>1.0423624076362767</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I16" s="6" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>-0.13983332508843144</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <v>-0.14875401036882202</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>-0.10765325401422474</v>
       </c>
-      <c r="M16" s="7">
+      <c r="N16" s="7">
         <v>-0.37910185654288447</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>-0.27060080045001561</v>
       </c>
-      <c r="O16" s="7">
+      <c r="P16" s="7">
         <v>-0.5</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <v>-0.51412403859592759</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I17" s="6" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>-0.28382890237803515</v>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="7">
         <v>-0.27623347108396007</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>-0.29328353754662262</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N17" s="7">
         <v>-4.6323011046954264E-2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="O17" s="7">
         <v>0.31765832053788773</v>
       </c>
-      <c r="O17" s="7">
+      <c r="P17" s="7">
         <v>0</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <v>2.5579329646187098E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>8.2099488788972552E-2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <v>9.1067213155727814E-2</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>5.9526099642932886E-2</v>
       </c>
-      <c r="M18" s="7">
+      <c r="N18" s="7">
         <v>0.21815286262163724</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>0.11647829568476861</v>
       </c>
-      <c r="O18" s="7">
+      <c r="P18" s="7">
         <v>0</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Q18" s="7">
         <v>-3.2840001240220435E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>4032488.2900000005</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>24354172.290000007</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>0.94489517432136449</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <v>0.93411556381123506</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>0.97073870374555982</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N19" s="7">
         <v>0.81048562546101388</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>-6.3920657412323639E-2</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>1</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="7">
         <v>0.9713809470728979</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>3961381.3200000008</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>23505340.820000011</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>-0.55323964744155973</v>
       </c>
-      <c r="K20" s="7">
+      <c r="L20" s="7">
         <v>-0.56494080919044254</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>-0.54883057446435346</v>
       </c>
-      <c r="M20" s="7">
+      <c r="N20" s="7">
         <v>-0.64492309166687611</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>-0.1838423004639958</v>
       </c>
-      <c r="O20" s="7">
+      <c r="P20" s="7">
         <v>-0.5</v>
       </c>
-      <c r="P20" s="7">
+      <c r="Q20" s="7">
         <v>-0.512742052982745</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>3858206.39</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>24887654.890000004</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>1.1029686057791728</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>1.2285123611909796</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>1.0865747736114255</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N21" s="7">
         <v>1.9252360738714314</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>0.31264072159245393</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="7">
         <v>1</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q21" s="7">
         <v>1.1307742337679165</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>3397345.6799999992</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>25029830.180000011</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>3198923.1100000003</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>20949352.109999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -60962,70 +60975,71 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>3057984.07</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>17747116.07</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>2289024.8899999997</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>13815307.890000004</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>2227807.3800000004</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>15390801.879999995</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>5038535.4599999981</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>33011143.960000008</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>2556904.9699999993</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>18250059.470000003</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>3278088.0200000005</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>20511921.02</v>
       </c>
     </row>
@@ -61039,8 +61053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A4290-4A98-4CAD-9F01-28ADF42BA7BA}">
   <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61051,18 +61065,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="28"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="15"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="21" t="s">
         <v>64</v>
       </c>
@@ -61075,7 +61089,7 @@
       <c r="I3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="30" t="s">
         <v>47</v>
       </c>
     </row>
@@ -61100,7 +61114,7 @@
         <f>CORREL(Table1[[ Discounts ]],Table1[[ Discounts ]])</f>
         <v>1</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="29">
         <f>CORREL(Table1[[ Discounts ]],Table1[Profit])</f>
         <v>0.43914121360682173</v>
       </c>
@@ -61122,11 +61136,11 @@
       <c r="H5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="27">
         <f>CORREL(Table1[Profit],Table1[[ Discounts ]])</f>
         <v>0.43914121360682173</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="28">
         <f>CORREL(Table1[Profit],Table1[Profit])</f>
         <v>1</v>
       </c>
